--- a/data/trans_orig/P1428-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45BB9740-5C1F-428E-87D8-0F3509825BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592C80C0-E101-47A7-A701-4BC04589B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{040BC036-B12A-43B5-B89C-3B60AA66C58F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4327E79B-66E9-42D6-8495-2C50BFBFBBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="322">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>15,66%</t>
   </si>
   <si>
-    <t>13,68%</t>
+    <t>13,65%</t>
   </si>
   <si>
     <t>17,96%</t>
@@ -104,19 +104,19 @@
     <t>35,29%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -128,25 +128,25 @@
     <t>82,04%</t>
   </si>
   <si>
-    <t>86,32%</t>
+    <t>86,35%</t>
   </si>
   <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>73,34%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,757 +230,736 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>6,27%</t>
@@ -989,19 +968,19 @@
     <t>17,22%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>94,49%</t>
@@ -1010,25 +989,22 @@
     <t>93,73%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,23%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1C414F-2520-406C-A85B-27D7C6B8E2F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04783E40-B6F2-47F6-BA8A-9BE4C9528DE5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2048,7 +2024,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -2057,13 +2033,13 @@
         <v>39486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,13 +2054,13 @@
         <v>537736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>428</v>
@@ -2093,13 +2069,13 @@
         <v>450598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>943</v>
@@ -2108,13 +2084,13 @@
         <v>988334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2209,13 @@
         <v>236558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>577</v>
@@ -2248,13 +2224,13 @@
         <v>596553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>822</v>
@@ -2263,13 +2239,13 @@
         <v>833111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2260,13 @@
         <v>3039986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>2720</v>
@@ -2299,28 +2275,28 @@
         <v>2782645</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>5689</v>
       </c>
       <c r="N18" s="7">
-        <v>5822629</v>
+        <v>5822630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2338,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2376,7 +2352,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B797475-DD2D-425E-A55C-B76DB75646EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C98486-5BFA-4C68-837C-B61E5C1F6ECA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2412,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2525,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2555,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2546,13 @@
         <v>113469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>309</v>
@@ -2585,13 +2561,13 @@
         <v>330578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>414</v>
@@ -2600,13 +2576,13 @@
         <v>444047</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2597,13 @@
         <v>861174</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>938</v>
@@ -2636,13 +2612,13 @@
         <v>1007218</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1741</v>
@@ -2651,13 +2627,13 @@
         <v>1868393</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2776,13 +2752,13 @@
         <v>51435</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -2791,13 +2767,13 @@
         <v>86046</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" s="7">
         <v>122</v>
@@ -2806,13 +2782,13 @@
         <v>137481</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2803,13 @@
         <v>1912522</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>1558</v>
@@ -2842,19 +2818,19 @@
         <v>1668546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>3367</v>
       </c>
       <c r="N10" s="7">
-        <v>3581069</v>
+        <v>3581068</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>135</v>
@@ -2905,7 +2881,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3012,13 +2988,13 @@
         <v>34344</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3009,13 @@
         <v>469781</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -3048,13 +3024,13 @@
         <v>435687</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -3063,13 +3039,13 @@
         <v>905468</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3164,13 @@
         <v>176304</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -3203,13 +3179,13 @@
         <v>439569</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>564</v>
@@ -3218,13 +3194,13 @@
         <v>615872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3215,13 @@
         <v>3243478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>2888</v>
@@ -3254,28 +3230,28 @@
         <v>3111451</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>5930</v>
       </c>
       <c r="N18" s="7">
-        <v>6354929</v>
+        <v>6354930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3293,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3331,7 +3307,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF884F0E-025F-4F0B-8215-62A43A1CA062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C78C4B6-2FC8-4C98-A728-A4753C84F5F2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3480,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3495,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3525,13 +3501,13 @@
         <v>60554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>181</v>
@@ -3540,13 +3516,13 @@
         <v>208463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>245</v>
@@ -3555,13 +3531,13 @@
         <v>269016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3552,13 @@
         <v>693793</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>711</v>
@@ -3591,13 +3567,13 @@
         <v>786197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>1409</v>
@@ -3606,13 +3582,13 @@
         <v>1479991</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3701,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3716,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3707,13 @@
         <v>49942</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -3746,13 +3722,13 @@
         <v>105693</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>142</v>
@@ -3761,13 +3737,13 @@
         <v>155636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3758,13 @@
         <v>2026443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>1813</v>
@@ -3797,13 +3773,13 @@
         <v>1882607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>3718</v>
@@ -3812,13 +3788,13 @@
         <v>3909049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3922,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3913,13 @@
         <v>9417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3952,13 +3928,13 @@
         <v>16897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3967,13 +3943,13 @@
         <v>26314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3964,13 @@
         <v>537469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -4003,13 +3979,13 @@
         <v>532243</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1005</v>
@@ -4018,13 +3994,13 @@
         <v>1069712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4104,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4119,13 @@
         <v>119913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -4158,13 +4134,13 @@
         <v>331053</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -4173,13 +4149,13 @@
         <v>450966</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4170,7 @@
         <v>3257705</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>241</v>
@@ -4286,7 +4262,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226BD96C-9CDE-4CA4-B158-5ECA21C4168D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D388C-CE0E-498D-84D5-18896FDEBB9F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4641,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4650,13 +4626,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4665,13 +4641,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4662,13 @@
         <v>98278</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H9" s="7">
         <v>361</v>
@@ -4701,13 +4677,13 @@
         <v>317625</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M9" s="7">
         <v>478</v>
@@ -4716,13 +4692,13 @@
         <v>415903</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,16 +4710,16 @@
         <v>1873</v>
       </c>
       <c r="D10" s="7">
-        <v>2061845</v>
+        <v>2061844</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>2546</v>
@@ -4752,13 +4728,13 @@
         <v>1921832</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>4419</v>
@@ -4767,13 +4743,13 @@
         <v>3983677</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,7 +4761,7 @@
         <v>1990</v>
       </c>
       <c r="D11" s="7">
-        <v>2160123</v>
+        <v>2160122</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4862,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4877,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4868,13 @@
         <v>17195</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4907,13 +4883,13 @@
         <v>53889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -4922,13 +4898,13 @@
         <v>71084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4919,13 @@
         <v>654813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>914</v>
@@ -4958,13 +4934,13 @@
         <v>659679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>1572</v>
@@ -4973,13 +4949,13 @@
         <v>1314492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5038,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5077,13 +5053,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5074,13 @@
         <v>185555</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
@@ -5113,13 +5089,13 @@
         <v>651881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1196</v>
@@ -5128,13 +5104,13 @@
         <v>837436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5125,13 @@
         <v>3182925</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>4372</v>
@@ -5164,13 +5140,13 @@
         <v>3129649</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>7488</v>
@@ -5179,13 +5155,13 @@
         <v>6312574</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5217,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1428-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{592C80C0-E101-47A7-A701-4BC04589B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDD4A19-BAA4-432A-B878-7FBC3146E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4327E79B-66E9-42D6-8495-2C50BFBFBBF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ABAB804-DFF2-4F7D-9BAF-A7B9A4BA5D39}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="328">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>15,66%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>84,34%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>73,34%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,841 +164,859 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>88,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
   </si>
   <si>
     <t>83,5%</t>
@@ -1416,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04783E40-B6F2-47F6-BA8A-9BE4C9528DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D20E1C-4B2E-4834-AEDF-5D80CDE87AA0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1845,7 +1863,7 @@
         <v>1589</v>
       </c>
       <c r="D10" s="7">
-        <v>1632102</v>
+        <v>1632103</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1896,7 +1914,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2257,7 +2275,7 @@
         <v>2969</v>
       </c>
       <c r="D18" s="7">
-        <v>3039986</v>
+        <v>3039985</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>90</v>
@@ -2308,7 +2326,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2371,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C98486-5BFA-4C68-837C-B61E5C1F6ECA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026311B-59C6-47CA-BBEC-65B81E90E9AE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2770,10 +2788,10 @@
         <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>122</v>
@@ -2782,13 +2800,13 @@
         <v>137481</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2821,13 @@
         <v>1912522</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1558</v>
@@ -2818,28 +2836,28 @@
         <v>1668546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3367</v>
       </c>
       <c r="N10" s="7">
-        <v>3581068</v>
+        <v>3581069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2899,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2913,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2928,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2943,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2976,13 @@
         <v>11400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2973,13 +2991,13 @@
         <v>22944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2988,13 +3006,13 @@
         <v>34344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3027,13 @@
         <v>469781</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -3024,13 +3042,13 @@
         <v>435687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -3039,13 +3057,13 @@
         <v>905468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3182,13 @@
         <v>176304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -3179,13 +3197,13 @@
         <v>439569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>564</v>
@@ -3194,13 +3212,13 @@
         <v>615872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3233,13 @@
         <v>3243478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>2888</v>
@@ -3230,28 +3248,28 @@
         <v>3111451</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>5930</v>
       </c>
       <c r="N18" s="7">
-        <v>6354930</v>
+        <v>6354929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3311,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3326,7 +3344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C78C4B6-2FC8-4C98-A728-A4753C84F5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086123F6-0799-4331-92C2-BC3A7889AD94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3456,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3471,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3501,13 +3519,13 @@
         <v>60554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>181</v>
@@ -3516,13 +3534,13 @@
         <v>208463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>245</v>
@@ -3531,13 +3549,13 @@
         <v>269016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3570,13 @@
         <v>693793</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>711</v>
@@ -3567,13 +3585,13 @@
         <v>786197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>1409</v>
@@ -3582,13 +3600,13 @@
         <v>1479991</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3725,13 @@
         <v>49942</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -3722,13 +3740,13 @@
         <v>105693</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>142</v>
@@ -3737,13 +3755,13 @@
         <v>155636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3776,13 @@
         <v>2026443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>1813</v>
@@ -3773,13 +3791,13 @@
         <v>1882607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>3718</v>
@@ -3788,13 +3806,13 @@
         <v>3909049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3898,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3931,13 @@
         <v>9417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3928,13 +3946,13 @@
         <v>16897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3943,13 +3961,13 @@
         <v>26314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3982,13 @@
         <v>537469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -3979,13 +3997,13 @@
         <v>532243</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1005</v>
@@ -3994,13 +4012,13 @@
         <v>1069712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4137,13 @@
         <v>119913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -4134,13 +4152,13 @@
         <v>331053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -4149,13 +4167,13 @@
         <v>450966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4188,13 @@
         <v>3257705</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H18" s="7">
         <v>3035</v>
@@ -4185,13 +4203,13 @@
         <v>3201047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M18" s="7">
         <v>6132</v>
@@ -4200,13 +4218,13 @@
         <v>6458752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D388C-CE0E-498D-84D5-18896FDEBB9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97DD360-58B7-402D-A2FF-AC57FDC17EE5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4411,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4420,13 +4438,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4441,7 +4459,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4474,13 @@
         <v>70082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
         <v>507</v>
@@ -4471,13 +4489,13 @@
         <v>280366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>608</v>
@@ -4486,13 +4504,13 @@
         <v>350448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4525,13 @@
         <v>466268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
         <v>912</v>
@@ -4522,13 +4540,13 @@
         <v>548139</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>1497</v>
@@ -4537,13 +4555,13 @@
         <v>1014406</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4659,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4662,13 +4680,13 @@
         <v>98278</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H9" s="7">
         <v>361</v>
@@ -4677,13 +4695,13 @@
         <v>317625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>478</v>
@@ -4692,13 +4710,13 @@
         <v>415903</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4731,13 @@
         <v>2061844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>2546</v>
@@ -4728,13 +4746,13 @@
         <v>1921832</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>4419</v>
@@ -4743,13 +4761,13 @@
         <v>3983677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4838,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4853,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4886,13 @@
         <v>17195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4883,13 +4901,13 @@
         <v>53889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -4898,13 +4916,13 @@
         <v>71084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4937,13 @@
         <v>654813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>914</v>
@@ -4934,13 +4952,13 @@
         <v>659679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1572</v>
@@ -4949,13 +4967,13 @@
         <v>1314492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5053,7 +5071,7 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -5074,13 +5092,13 @@
         <v>185555</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
@@ -5089,13 +5107,13 @@
         <v>651881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1196</v>
@@ -5104,13 +5122,13 @@
         <v>837436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5143,13 @@
         <v>3182925</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>4372</v>
@@ -5140,13 +5158,13 @@
         <v>3129649</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>7488</v>
@@ -5155,13 +5173,13 @@
         <v>6312574</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1428-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E9BD61-FCA7-4F4B-9941-6983BFD58048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5C2040-2AB5-41A6-BE0D-4951015535AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25470522-A888-4B91-B998-6A39B94857EB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8F2564DD-3608-41E9-BACF-9A97C65D1768}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -722,220 +722,196 @@
     <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,59%)</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4367AC1C-6678-4CA5-AF27-3862100EA5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AB08FA-DF6C-4A60-84C1-EEF05E4B7BD1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1525,7 @@
         <v>1706</v>
       </c>
       <c r="N5" s="7">
-        <v>1721113</v>
+        <v>1721112</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1600,7 +1576,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1650,7 @@
         <v>1589</v>
       </c>
       <c r="D8" s="7">
-        <v>1632102</v>
+        <v>1632103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1725,7 +1701,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1984,7 +1960,7 @@
         <v>2969</v>
       </c>
       <c r="D14" s="7">
-        <v>3039986</v>
+        <v>3039985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1999,7 +1975,7 @@
         <v>2720</v>
       </c>
       <c r="I14" s="7">
-        <v>2782645</v>
+        <v>2782644</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2014,7 +1990,7 @@
         <v>5689</v>
       </c>
       <c r="N14" s="7">
-        <v>5822629</v>
+        <v>5822630</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2035,7 +2011,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2026,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2041,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D11E3E-51AA-45CF-9223-B0BCA0B1DF04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3675AA90-FA64-4CA9-928E-5F4225D28AC6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2285,7 +2261,7 @@
         <v>938</v>
       </c>
       <c r="I5" s="7">
-        <v>1007218</v>
+        <v>1007219</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2336,7 +2312,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2455,7 +2431,7 @@
         <v>3367</v>
       </c>
       <c r="N8" s="7">
-        <v>3581069</v>
+        <v>3581068</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2506,7 +2482,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2610,7 +2586,7 @@
         <v>822</v>
       </c>
       <c r="N11" s="7">
-        <v>905468</v>
+        <v>905469</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2661,7 +2637,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFE1409-3E24-40A5-880B-50C5A9530D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A69314A-1907-4D29-8774-4735392BEAB2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3337,7 @@
         <v>1005</v>
       </c>
       <c r="N11" s="7">
-        <v>1069712</v>
+        <v>1069713</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -3412,7 +3388,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC10AFC0-949E-45C9-84E0-77C1EDBFC8AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD76420E-BC92-48DD-B7C7-41F743AE3967}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3697,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="7">
-        <v>70082</v>
+        <v>65537</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3736,7 +3712,7 @@
         <v>507</v>
       </c>
       <c r="I4" s="7">
-        <v>280366</v>
+        <v>252506</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3751,7 +3727,7 @@
         <v>608</v>
       </c>
       <c r="N4" s="7">
-        <v>350448</v>
+        <v>318043</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3772,7 +3748,7 @@
         <v>585</v>
       </c>
       <c r="D5" s="7">
-        <v>466268</v>
+        <v>444292</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3787,7 +3763,7 @@
         <v>912</v>
       </c>
       <c r="I5" s="7">
-        <v>548138</v>
+        <v>496587</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3802,7 +3778,7 @@
         <v>1497</v>
       </c>
       <c r="N5" s="7">
-        <v>1014406</v>
+        <v>940878</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3823,7 +3799,7 @@
         <v>686</v>
       </c>
       <c r="D6" s="7">
-        <v>536350</v>
+        <v>509829</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3814,7 @@
         <v>1419</v>
       </c>
       <c r="I6" s="7">
-        <v>828504</v>
+        <v>749093</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3829,7 @@
         <v>2105</v>
       </c>
       <c r="N6" s="7">
-        <v>1364854</v>
+        <v>1258921</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,7 +3852,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="7">
-        <v>98278</v>
+        <v>91826</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3891,7 +3867,7 @@
         <v>361</v>
       </c>
       <c r="I7" s="7">
-        <v>317626</v>
+        <v>394222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3900,22 +3876,22 @@
         <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
       </c>
       <c r="N7" s="7">
-        <v>415903</v>
+        <v>486048</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,46 +3903,46 @@
         <v>1873</v>
       </c>
       <c r="D8" s="7">
-        <v>2061845</v>
+        <v>2196706</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2546</v>
       </c>
       <c r="I8" s="7">
-        <v>1921832</v>
+        <v>1834175</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4419</v>
       </c>
       <c r="N8" s="7">
-        <v>3983677</v>
+        <v>4030882</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3954,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160123</v>
+        <v>2288532</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3969,7 @@
         <v>2907</v>
       </c>
       <c r="I9" s="7">
-        <v>2239458</v>
+        <v>2228397</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +3984,7 @@
         <v>4897</v>
       </c>
       <c r="N9" s="7">
-        <v>4399580</v>
+        <v>4516930</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,46 +4007,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>17195</v>
+        <v>16202</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>53889</v>
+        <v>49120</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>71084</v>
+        <v>65322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,46 +4058,46 @@
         <v>658</v>
       </c>
       <c r="D11" s="7">
-        <v>654813</v>
+        <v>629443</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>914</v>
       </c>
       <c r="I11" s="7">
-        <v>659679</v>
+        <v>611021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1572</v>
       </c>
       <c r="N11" s="7">
-        <v>1314492</v>
+        <v>1240465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4109,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672008</v>
+        <v>645645</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4124,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713568</v>
+        <v>660141</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4139,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385576</v>
+        <v>1305787</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,46 +4162,46 @@
         <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>185555</v>
+        <v>173564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>956</v>
       </c>
       <c r="I13" s="7">
-        <v>651881</v>
+        <v>695848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>1196</v>
       </c>
       <c r="N13" s="7">
-        <v>837436</v>
+        <v>869412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,46 +4213,46 @@
         <v>3116</v>
       </c>
       <c r="D14" s="7">
-        <v>3182925</v>
+        <v>3270442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>4372</v>
       </c>
       <c r="I14" s="7">
-        <v>3129649</v>
+        <v>2941783</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>7488</v>
       </c>
       <c r="N14" s="7">
-        <v>6312574</v>
+        <v>6212225</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4264,7 @@
         <v>3356</v>
       </c>
       <c r="D15" s="7">
-        <v>3368480</v>
+        <v>3444006</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4279,7 @@
         <v>5328</v>
       </c>
       <c r="I15" s="7">
-        <v>3781530</v>
+        <v>3637631</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4294,7 @@
         <v>8684</v>
       </c>
       <c r="N15" s="7">
-        <v>7150010</v>
+        <v>7081637</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
